--- a/sg02/Assets/Resources/Config/Excel/Generals.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Generals.xlsx
@@ -4113,1883 +4113,1883 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Period03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormationUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmUsed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军师技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄割据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国鼎立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用阵形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用阵形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁奉（承渊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁原（建阳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁（文则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兀突骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙度（升济）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙恭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙渊（文懿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒（伯珪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卞喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太史慈（子义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔伷（公绪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融（文举）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文钦（仲若）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文聘（仲业）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文俶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文醜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毌丘俭（仲恭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛玠（孝先）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允（子师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王平（子均）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王甫（国山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朗（景兴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王基（伯舆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浑（长成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王粲（仲宣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王颀（孔硕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王濬（士治）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马孚（叔达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马炎（安世）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马昭（子元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马师（子上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马徽（德操）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿（仲达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左慈（元放）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田丰（元皓）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田畴（子泰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申耽（义举）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊籍（机伯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全琮（子璜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向朗（巨达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙牙长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱治（君理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱桓（休穆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱异（季文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱然（义封）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱儁（公伟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱灵（文博）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朵思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何进（遂高）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴班（元雄）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴质（季重）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴懿（子远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布（奉先）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕虔（子恪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕乂（季阳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕蒙（子明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕范（子衡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕旷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋宪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李典（曼成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李恢（德昂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傕（稚然）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李儒（文优）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李严（正方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步鹭（子山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙摩诃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车胄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛毗（佐治）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛评（仲治）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢道荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓膺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周昕（大明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰（幼平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜（公瑾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鲂（子鱼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟达（子庆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武安国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法正（孝直）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沮授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沮鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金旋（元机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金环三结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿会喃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜维（伯约）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫嵩（义真）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡车儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淩统（公绩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淩操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯玄（太初）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯和（义权）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯尚（伯仁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯威（季权）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇（元让）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯渊（妙才）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯楙（子林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯霸（仲权）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙桓（叔武）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙乾（公祐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚（文台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙翊（叔弼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙登（子高）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙皓（元宗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策（伯符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙韶（公礼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙静（幼台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙礼（德达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权（仲谋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃（公明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐庶（元直）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐盛（文向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桓范（元则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦宓（子庲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀攸（公达）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧（文若）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁尚（显甫）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁胤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍（本初）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术（公路）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁熙（显雍）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁谭（显思）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝昭（伯道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马良（季常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马岱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马忠（德信）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超（孟起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马谡（幼常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾（寿成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高沛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高幹（元才）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张松（永年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张昭（子布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张苞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃（儁乂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞（益德）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张纮（子纲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张温（惠恕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鲁（公祺）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辽（文远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翼（伯恭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嶷（伯歧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张邈（孟卓）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张闿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹仁（子孝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹丕（子桓）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹休（文烈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹昂（子脩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹芳（兰卿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹洪（子廉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹真（子丹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹纯（子和）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹爽（昭伯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹植（子建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹彰（子文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操（孟德）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹羲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹叡（元仲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳于琼（仲简）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笮融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许劭（子将）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许攸（子远）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许靖（文休）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许禇（仲康）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逄纪（元图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭汜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭奕（伯益）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉（奉孝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭图（公则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈武（子烈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宫（公台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈泰（玄伯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈琳（孔璋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈登（元龙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈群（长文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈震（孝起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈矫（季弼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆抗（幼节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆凯（敬风）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆逊（伯言）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆绩（公纪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦（恭祖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士仁（君义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅肜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅巽（公悌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅幹（彦材）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅婴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥玄（公祖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥瑁（元玮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程秉（德枢）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程昱（仲德）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程普（德谋）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程远志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华佗（元化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华歆（子鱼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂婵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费祎（文伟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轲比能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯习（休元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠（汉升）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盖（公覆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄权（公衡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨脩（德祖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨祚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨彪（文先）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨仪（威公）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨怀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董允（休昭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓（仲颖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董和（幼宰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董旻（叔颖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董昭（公仁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董荼那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董袭（元代）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞翻（仲翔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾充（公闾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾逵（梁道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩（文和）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雍闿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖化（元俭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满宠（伯宁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管亥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管辂（公明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臧霸（宣高）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴元绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云（子龙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯良（子柔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒯越（异度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘巴（子初）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘岱（公山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表（景昇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焉（君郎）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备（玄德）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘循</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘辟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璋（季玉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晔（子阳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘禅（公嗣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审配（正南）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊稠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐进（文谦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘璋（文珪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘濬（承明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋钦（公奕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋琬（公琰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋幹（子翼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋济（子通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡邕（伯喈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡瑁（德珪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮（孔明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛恪（元逊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛瑾（子瑜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛诞（公休）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓艾（士载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓芝（伯苗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁肃（子敬）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢植（子幹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎圃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍峻（仲邈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆统（公绪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜竺（子仲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜芳（子方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛综（敬则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟会（士季）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟繇（元常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩浩（元嗣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩嵩（德高）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩当（义公）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩遂（文约）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩暹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩馥（文节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简雍（宪和）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏延（文长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统（士元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞羲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞惪（令明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谯周（永南）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽（云长）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关兴（安国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祢衡（正平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严白虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严畯（曼才）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严舆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阚泽（德润）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾雍（元叹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚君主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严白虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁（兴霸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左贤王（去卑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Period02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PeriodState02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormationUsed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArmUsed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Family</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必杀技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军师技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨伐董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群雄割据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三国鼎立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用阵形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用阵形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗帜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁奉（承渊）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁原（建阳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于吉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁（文则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兀突骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙度（升济）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙恭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙渊（文懿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒（伯珪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卞喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太史慈（子义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔伷（公绪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔融（文举）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文钦（仲若）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文聘（仲业）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文俶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文醜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毌丘俭（仲恭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛玠（孝先）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王允（子师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王平（子均）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王甫（国山）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王朗（景兴）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王基（伯舆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王累</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王浑（长成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王粲（仲宣）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王颀（孔硕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王濬（士治）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马孚（叔达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马炎（安世）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马昭（子元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马师（子上）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马徽（德操）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马懿（仲达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左慈（元放）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左贤王去卑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘宁（兴霸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田丰（元皓）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田畴（子泰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申耽（义举）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊籍（机伯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全琮（子璜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向朗（巨达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向宠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忙牙长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱治（君理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱桓（休穆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱异（季文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱然（义封）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱儁（公伟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱灵（文博）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朵思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何进（遂高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴班（元雄）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴质（季重）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴懿（子远）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布（奉先）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕虔（子恪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕乂（季阳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕蒙（子明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕范（子衡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕旷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋宪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李典（曼成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李恢（德昂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李肃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傕（稚然）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李儒（文优）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李严（正方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步鹭（子山）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙摩诃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车胄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛毗（佐治）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛评（仲治）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邢道荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓膺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周昕（大明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周泰（幼平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周瑜（公瑾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周鲂（子鱼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟达（子庆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武安国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法正（孝直）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沮授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沮鹄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金旋（元机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金环三结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿会喃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜维（伯约）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇甫嵩（义真）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡车儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淩统（公绩）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淩操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯玄（太初）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯和（义权）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯尚（伯仁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯威（季权）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇（元让）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯渊（妙才）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯楙（子林）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯霸（仲权）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙尚香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙桓（叔武）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙乾（公祐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚（文台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙翊（叔弼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙登（子高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙皓（元宗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙策（伯符）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙韶（公礼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙静（幼台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙礼（德达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权（仲谋）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃（公明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐庶（元直）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐盛（文向）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桓范（元则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖茂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦宓（子庲）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿纪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荀攸（公达）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荀彧（文若）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁尚（显甫）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁胤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍（本初）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁术（公路）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁熙（显雍）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁谭（显思）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郝昭（伯道）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马良（季常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马岱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马忠（德信）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超（孟起）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马谡（幼常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾（寿成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高沛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高顺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高幹（元才）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张允</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张松（永年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张昭（子布）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张苞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃（儁乂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞（益德）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张纮（子纲）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张温（惠恕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鲁（公祺）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张横</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张辽（文远）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张翼（伯恭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张嶷（伯歧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张绣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张邈（孟卓）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张闿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹仁（子孝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹丕（子桓）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹休（文烈）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹昂（子脩）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹芳（兰卿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹洪（子廉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹真（子丹）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹纯（子和）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹豹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹爽（昭伯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹植（子建）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹彰（子文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操（孟德）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹羲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹叡（元仲）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳于琼（仲简）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笮融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许劭（子将）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许攸（子远）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许靖（文休）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许禇（仲康）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逄纪（元图）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭汜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭奕（伯益）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭嘉（奉孝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭图（公则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈武（子烈）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宫（公台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈泰（玄伯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈琳（孔璋）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈登（元龙）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈群（长文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈震（孝起）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈横</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈矫（季弼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆抗（幼节）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆凯（敬风）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆逊（伯言）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆绩（公纪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦（恭祖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士仁（君义）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅肜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅巽（公悌）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅幹（彦材）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傅婴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥玄（公祖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥瑁（元玮）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程秉（德枢）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程昱（仲德）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程普（德谋）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程远志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华佗（元化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华歆（子鱼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂婵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费祎（文伟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轲比能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯习（休元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄忠（汉升）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄祖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄盖（公覆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄权（公衡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨脩（德祖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨祚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨彪（文先）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨仪（威公）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨怀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董允（休昭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓（仲颖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董和（幼宰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董旻（叔颖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董昭（公仁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董荼那</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董袭（元代）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虞翻（仲翔）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾充（公闾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾逵（梁道）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾诩（文和）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹靖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雍闿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷薄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖化（元俭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彻里吉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满宠（伯宁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管亥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管辂（公明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臧霸（宣高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裴元绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵弘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云（子龙）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯良（子柔）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒯越（异度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘巴（子初）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘岱（公山）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表（景昇）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘封</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘焉（君郎）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备（玄德）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘循</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘辟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘璋（季玉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晔（子阳）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘禅（公嗣）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘繇（正礼）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审配（正南）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊稠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐进（文谦）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘璋（文珪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘濬（承明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋钦（公奕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋琬（公琰）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋幹（子翼）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋义渠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋济（子通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡邕（伯喈）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡瑁（德珪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛亮（孔明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛恪（元逊）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛瑾（子瑜）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛诞（公休）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓艾（士载）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓忠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓芝（伯苗）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓茂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁肃（子敬）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢植（子幹）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎圃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍峻（仲邈）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆统（公绪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍隆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糜竺（子仲）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糜芳（子方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛综（敬则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟会（士季）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟繇（元常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩忠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩浩（元嗣）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩嵩（德高）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩当（义公）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩遂（文约）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩暹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩馥（文节）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简雍（宪和）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏延（文长）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞统（士元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞羲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞惪（令明）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谯周（永南）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽（云长）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关兴（安国）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祢衡（正平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严白虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严畯（曼才）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严舆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阚泽（德润）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾雍（元叹）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠诚君主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严白虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马懿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王允</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘焉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛瑾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
+    <t>彻里吉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6635,12 +6635,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG168" workbookViewId="0">
-      <selection activeCell="BA189" sqref="BA189"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="49" max="49" width="10.75" customWidth="1"/>
   </cols>
@@ -6764,404 +6765,404 @@
         <v>395</v>
       </c>
       <c r="AN1" t="s">
+        <v>863</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>862</v>
+      </c>
+      <c r="AP1" t="s">
         <v>396</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>397</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>398</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>399</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>400</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>401</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>402</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AX1" t="s">
         <v>403</v>
       </c>
-      <c r="AV1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>406</v>
       </c>
-      <c r="AX1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>407</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>408</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
+        <v>411</v>
+      </c>
+      <c r="BE1" t="s">
         <v>410</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" t="s">
         <v>417</v>
       </c>
-      <c r="B2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>418</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="V2" t="s">
         <v>420</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="W2" t="s">
+        <v>420</v>
+      </c>
+      <c r="X2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL2" t="s">
         <v>421</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="AM2" t="s">
         <v>421</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>422</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AO2" t="s">
         <v>422</v>
       </c>
-      <c r="X2" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>423</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>423</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>424</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>424</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>425</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>425</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>426</v>
       </c>
-      <c r="AS2" t="s">
-        <v>426</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>427</v>
       </c>
-      <c r="AU2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>428</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>429</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>430</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
+        <v>832</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>843</v>
+      </c>
+      <c r="BC2" t="s">
         <v>431</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>432</v>
       </c>
-      <c r="BA2" t="s">
-        <v>838</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>849</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>433</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>434</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="R3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="V3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="X3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Y3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AA3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AB3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AC3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AD3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AE3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AH3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AI3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AJ3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AK3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AL3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AM3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AP3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AQ3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AR3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AS3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AT3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AU3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AV3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AW3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AX3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AY3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AZ3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BA3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BB3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BC3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BD3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BE3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
@@ -7169,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C4" s="2">
         <v>80</v>
@@ -7301,7 +7302,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C5" s="2">
         <v>74</v>
@@ -7425,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -7585,7 +7586,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="2">
         <v>81</v>
@@ -7729,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" s="2">
         <v>88</v>
@@ -7849,7 +7850,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C9" s="2">
         <v>72</v>
@@ -7965,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="2">
         <v>46</v>
@@ -8095,7 +8096,7 @@
         <v>92</v>
       </c>
       <c r="BA10" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="BC10" s="11">
         <v>6</v>
@@ -8112,7 +8113,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C11" s="2">
         <v>68</v>
@@ -8218,7 +8219,7 @@
         <v>92</v>
       </c>
       <c r="BA11" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="BC11" s="11">
         <v>6</v>
@@ -8235,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C12" s="2">
         <v>76</v>
@@ -8351,7 +8352,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C13" s="2">
         <v>64</v>
@@ -8483,7 +8484,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C14" s="2">
         <v>88</v>
@@ -8599,7 +8600,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C15" s="2">
         <v>82</v>
@@ -8723,7 +8724,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C16" s="2">
         <v>65</v>
@@ -8817,7 +8818,7 @@
         <v>79</v>
       </c>
       <c r="BA16" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="BC16" s="11">
         <v>3</v>
@@ -8834,7 +8835,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C17" s="2">
         <v>86</v>
@@ -8970,7 +8971,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C18" s="2">
         <v>73</v>
@@ -9082,7 +9083,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C19" s="2">
         <v>97</v>
@@ -9230,7 +9231,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C20" s="2">
         <v>42</v>
@@ -9366,7 +9367,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C21" s="2">
         <v>45</v>
@@ -9518,7 +9519,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C22" s="2">
         <v>83</v>
@@ -9638,7 +9639,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C23" s="2">
         <v>82</v>
@@ -9766,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -9890,7 +9891,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C25" s="2">
         <v>96</v>
@@ -10018,7 +10019,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C26" s="2">
         <v>78</v>
@@ -10142,7 +10143,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C27" s="2">
         <v>71</v>
@@ -10274,7 +10275,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C28" s="2">
         <v>64</v>
@@ -10398,7 +10399,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C29" s="2">
         <v>78</v>
@@ -10518,7 +10519,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C30" s="2">
         <v>65</v>
@@ -10638,7 +10639,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C31" s="2">
         <v>42</v>
@@ -10766,7 +10767,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C32" s="2">
         <v>77</v>
@@ -10906,7 +10907,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C33" s="2">
         <v>48</v>
@@ -11034,7 +11035,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C34" s="2">
         <v>60</v>
@@ -11190,7 +11191,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C35" s="2">
         <v>68</v>
@@ -11294,7 +11295,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C36" s="2">
         <v>76</v>
@@ -11418,7 +11419,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C37" s="2">
         <v>48</v>
@@ -11558,7 +11559,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C38" s="2">
         <v>66</v>
@@ -11670,7 +11671,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C39" s="2">
         <v>41</v>
@@ -11814,7 +11815,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C40" s="2">
         <v>64</v>
@@ -11918,7 +11919,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C41" s="2">
         <v>80</v>
@@ -12054,7 +12055,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C42" s="6">
         <v>84</v>
@@ -12202,7 +12203,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C43" s="6">
         <v>38</v>
@@ -12334,7 +12335,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C44" s="6">
         <v>81</v>
@@ -12452,7 +12453,7 @@
         <v>32</v>
       </c>
       <c r="BB44" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="BC44" s="11">
         <v>3</v>
@@ -12469,7 +12470,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C45" s="6">
         <v>67</v>
@@ -12595,7 +12596,7 @@
         <v>241</v>
       </c>
       <c r="BB45" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="BC45" s="11">
         <v>4</v>
@@ -12612,7 +12613,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C46" s="6">
         <v>66</v>
@@ -12746,7 +12747,7 @@
         <v>50</v>
       </c>
       <c r="BB46" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="BC46" s="11">
         <v>4</v>
@@ -12763,7 +12764,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C47" s="6">
         <v>32</v>
@@ -12931,7 +12932,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C48" s="6">
         <v>71</v>
@@ -13087,7 +13088,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C49" s="6">
         <v>33</v>
@@ -13255,7 +13256,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>484</v>
+        <v>861</v>
       </c>
       <c r="C50" s="6">
         <v>64</v>
@@ -13395,7 +13396,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>860</v>
       </c>
       <c r="C51" s="6">
         <v>96</v>
@@ -13539,7 +13540,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C52" s="6">
         <v>52</v>
@@ -13695,7 +13696,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C53" s="6">
         <v>74</v>
@@ -13819,7 +13820,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C54" s="6">
         <v>70</v>
@@ -13943,7 +13944,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C55" s="6">
         <v>44</v>
@@ -14083,7 +14084,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C56" s="6">
         <v>84</v>
@@ -14219,7 +14220,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C57" s="6">
         <v>75</v>
@@ -14343,7 +14344,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C58" s="6">
         <v>34</v>
@@ -14491,7 +14492,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C59" s="6">
         <v>72</v>
@@ -14623,7 +14624,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C60" s="6">
         <v>72</v>
@@ -14735,7 +14736,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C61" s="6">
         <v>62</v>
@@ -14855,7 +14856,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C62" s="6">
         <v>86</v>
@@ -14999,7 +15000,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C63" s="6">
         <v>58</v>
@@ -15099,7 +15100,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C64" s="6">
         <v>76</v>
@@ -15219,7 +15220,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C65" s="6">
         <v>75</v>
@@ -15347,7 +15348,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C66" s="6">
         <v>67</v>
@@ -15459,7 +15460,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C67" s="6">
         <v>81</v>
@@ -15583,7 +15584,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C68" s="6">
         <v>74</v>
@@ -15699,7 +15700,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C69" s="6">
         <v>68</v>
@@ -15811,7 +15812,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C70" s="6">
         <v>66</v>
@@ -15927,7 +15928,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C71" s="6">
         <v>35</v>
@@ -16035,7 +16036,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C72" s="6">
         <v>43</v>
@@ -16151,7 +16152,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C73" s="6">
         <v>78</v>
@@ -16275,7 +16276,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C74" s="6">
         <v>79</v>
@@ -16415,7 +16416,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C75" s="6">
         <v>100</v>
@@ -16543,7 +16544,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C76" s="6">
         <v>67</v>
@@ -16655,7 +16656,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C77" s="6">
         <v>71</v>
@@ -16763,7 +16764,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C78" s="6">
         <v>73</v>
@@ -16895,7 +16896,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C79" s="6">
         <v>85</v>
@@ -17033,7 +17034,7 @@
         <v>18</v>
       </c>
       <c r="BA79" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BC79" s="11">
         <v>5</v>
@@ -17050,7 +17051,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C80" s="6">
         <v>48</v>
@@ -17190,7 +17191,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C81" s="6">
         <v>71</v>
@@ -17306,7 +17307,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C82" s="6">
         <v>68</v>
@@ -17418,7 +17419,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C83" s="6">
         <v>80</v>
@@ -17562,7 +17563,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C84" s="6">
         <v>54</v>
@@ -17710,7 +17711,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C85" s="6">
         <v>77</v>
@@ -17834,7 +17835,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C86" s="6">
         <v>44</v>
@@ -17966,7 +17967,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C87" s="6">
         <v>74</v>
@@ -18078,7 +18079,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C88" s="6">
         <v>42</v>
@@ -18212,7 +18213,7 @@
         <v>50</v>
       </c>
       <c r="BA88" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="BC88" s="11">
         <v>2</v>
@@ -18229,7 +18230,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C89" s="6">
         <v>76</v>
@@ -18341,7 +18342,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C90" s="6">
         <v>82</v>
@@ -18481,7 +18482,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C91" s="6">
         <v>79</v>
@@ -18593,7 +18594,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C92" s="6">
         <v>40</v>
@@ -18737,7 +18738,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C93" s="6">
         <v>92</v>
@@ -18857,7 +18858,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C94" s="6">
         <v>72</v>
@@ -18977,7 +18978,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C95" s="6">
         <v>47</v>
@@ -19117,7 +19118,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C96" s="6">
         <v>65</v>
@@ -19253,7 +19254,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C97" s="6">
         <v>79</v>
@@ -19369,7 +19370,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C98" s="6">
         <v>98</v>
@@ -19493,7 +19494,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C99" s="6">
         <v>64</v>
@@ -19609,7 +19610,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C100" s="6">
         <v>72</v>
@@ -19721,7 +19722,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C101" s="6">
         <v>85</v>
@@ -19853,7 +19854,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C102" s="6">
         <v>82</v>
@@ -20005,7 +20006,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C103" s="6">
         <v>78</v>
@@ -20147,7 +20148,7 @@
         <v>32</v>
       </c>
       <c r="BA103" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BC103" s="11">
         <v>6</v>
@@ -20164,7 +20165,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C104" s="6">
         <v>45</v>
@@ -20304,7 +20305,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C105" s="6">
         <v>73</v>
@@ -20436,7 +20437,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C106" s="6">
         <v>85</v>
@@ -20552,7 +20553,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C107" s="6">
         <v>89</v>
@@ -20680,7 +20681,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C108" s="6">
         <v>70</v>
@@ -20792,7 +20793,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C109" s="6">
         <v>61</v>
@@ -20952,7 +20953,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C110" s="6">
         <v>66</v>
@@ -21100,7 +21101,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C111" s="6">
         <v>57</v>
@@ -21216,7 +21217,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C112" s="6">
         <v>65</v>
@@ -21336,7 +21337,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C113" s="6">
         <v>78</v>
@@ -21448,7 +21449,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C114" s="6">
         <v>78</v>
@@ -21564,7 +21565,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C115" s="6">
         <v>71</v>
@@ -21688,7 +21689,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C116" s="6">
         <v>93</v>
@@ -21840,7 +21841,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C117" s="6">
         <v>69</v>
@@ -21968,7 +21969,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C118" s="6">
         <v>85</v>
@@ -22088,7 +22089,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C119" s="6">
         <v>74</v>
@@ -22204,7 +22205,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C120" s="6">
         <v>68</v>
@@ -22320,7 +22321,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C121" s="6">
         <v>61</v>
@@ -22428,7 +22429,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C122" s="6">
         <v>83</v>
@@ -22556,7 +22557,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C123" s="6">
         <v>82</v>
@@ -22676,7 +22677,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C124" s="6">
         <v>44</v>
@@ -22804,7 +22805,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C125" s="6">
         <v>62</v>
@@ -22940,7 +22941,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C126" s="6">
         <v>73</v>
@@ -23050,7 +23051,7 @@
         <v>79</v>
       </c>
       <c r="BB126" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="BC126" s="11">
         <v>4</v>
@@ -23067,7 +23068,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C127" s="6">
         <v>77</v>
@@ -23195,7 +23196,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C128" s="6">
         <v>72</v>
@@ -23315,7 +23316,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C129" s="6">
         <v>96</v>
@@ -23471,7 +23472,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C130" s="6">
         <v>93</v>
@@ -23611,7 +23612,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C131" s="6">
         <v>63</v>
@@ -23723,7 +23724,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C132" s="6">
         <v>68</v>
@@ -23839,7 +23840,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C133" s="6">
         <v>90</v>
@@ -23957,7 +23958,7 @@
         <v>18</v>
       </c>
       <c r="BB133" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="BC133" s="11">
         <v>4</v>
@@ -23974,7 +23975,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C134" s="6">
         <v>82</v>
@@ -24096,10 +24097,10 @@
         <v>92</v>
       </c>
       <c r="BA134" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BB134" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC134" s="11">
         <v>6</v>
@@ -24116,7 +24117,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C135" s="6">
         <v>62</v>
@@ -24220,7 +24221,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C136" s="6">
         <v>75</v>
@@ -24348,7 +24349,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C137" s="6">
         <v>41</v>
@@ -24492,7 +24493,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C138" s="6">
         <v>94</v>
@@ -24644,7 +24645,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C139" s="6">
         <v>81</v>
@@ -24746,10 +24747,10 @@
         <v>18</v>
       </c>
       <c r="BA139" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BB139" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC139" s="11">
         <v>4</v>
@@ -24766,7 +24767,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C140" s="6">
         <v>33</v>
@@ -24906,7 +24907,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C141" s="6">
         <v>79</v>
@@ -25030,7 +25031,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C142" s="6">
         <v>95</v>
@@ -25160,10 +25161,10 @@
         <v>137</v>
       </c>
       <c r="BA142" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BB142" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC142" s="11">
         <v>5</v>
@@ -25180,7 +25181,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C143" s="6">
         <v>82</v>
@@ -25298,7 +25299,7 @@
         <v>18</v>
       </c>
       <c r="BA143" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BC143" s="11">
         <v>3</v>
@@ -25315,7 +25316,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C144" s="6">
         <v>55</v>
@@ -25445,7 +25446,7 @@
         <v>32</v>
       </c>
       <c r="BA144" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BC144" s="11">
         <v>4</v>
@@ -25462,7 +25463,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C145" s="6">
         <v>69</v>
@@ -25590,7 +25591,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C146" s="6">
         <v>85</v>
@@ -25728,10 +25729,10 @@
         <v>18</v>
       </c>
       <c r="BA146" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="BB146" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC146" s="11">
         <v>5</v>
@@ -25748,7 +25749,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C147" s="6">
         <v>93</v>
@@ -25896,7 +25897,7 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C148" s="6">
         <v>66</v>
@@ -26056,7 +26057,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C149" s="6">
         <v>76</v>
@@ -26200,7 +26201,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C150" s="6">
         <v>80</v>
@@ -26302,7 +26303,7 @@
         <v>18</v>
       </c>
       <c r="BA150" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="BC150" s="11">
         <v>3</v>
@@ -26319,7 +26320,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C151" s="6">
         <v>66</v>
@@ -26423,7 +26424,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C152" s="6">
         <v>41</v>
@@ -26563,7 +26564,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C153" s="6">
         <v>74</v>
@@ -26687,7 +26688,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C154" s="6">
         <v>83</v>
@@ -26807,7 +26808,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C155" s="6">
         <v>36</v>
@@ -26947,7 +26948,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C156" s="6">
         <v>43</v>
@@ -27079,7 +27080,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C157" s="6">
         <v>52</v>
@@ -27243,7 +27244,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C158" s="6">
         <v>46</v>
@@ -27407,7 +27408,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C159" s="6">
         <v>71</v>
@@ -27509,7 +27510,7 @@
         <v>50</v>
       </c>
       <c r="BB159" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="BC159" s="11">
         <v>4</v>
@@ -27526,7 +27527,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C160" s="6">
         <v>43</v>
@@ -27646,7 +27647,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C161" s="6">
         <v>81</v>
@@ -27782,7 +27783,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C162" s="6">
         <v>75</v>
@@ -27914,7 +27915,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C163" s="6">
         <v>64</v>
@@ -28028,7 +28029,7 @@
         <v>109</v>
       </c>
       <c r="BB163" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="BC163" s="11">
         <v>4</v>
@@ -28045,7 +28046,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C164" s="6">
         <v>65</v>
@@ -28143,7 +28144,7 @@
         <v>18</v>
       </c>
       <c r="BB164" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="BC164" s="11">
         <v>3</v>
@@ -28160,7 +28161,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C165" s="6">
         <v>81</v>
@@ -28276,7 +28277,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C166" s="6">
         <v>82</v>
@@ -28428,7 +28429,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C167" s="6">
         <v>68</v>
@@ -28536,7 +28537,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C168" s="6">
         <v>42</v>
@@ -28684,7 +28685,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C169" s="6">
         <v>85</v>
@@ -28812,7 +28813,7 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C170" s="6">
         <v>64</v>
@@ -28928,7 +28929,7 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C171" s="6">
         <v>70</v>
@@ -29044,7 +29045,7 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C172" s="6">
         <v>98</v>
@@ -29166,7 +29167,7 @@
         <v>137</v>
       </c>
       <c r="BB172" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="BC172" s="11">
         <v>4</v>
@@ -29183,7 +29184,7 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C173" s="6">
         <v>74</v>
@@ -29327,7 +29328,7 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C174" s="6">
         <v>91</v>
@@ -29467,7 +29468,7 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C175" s="6">
         <v>68</v>
@@ -29575,7 +29576,7 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C176" s="6">
         <v>64</v>
@@ -29673,7 +29674,7 @@
         <v>79</v>
       </c>
       <c r="BA176" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="BC176" s="11">
         <v>3</v>
@@ -29690,7 +29691,7 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C177" s="6">
         <v>67</v>
@@ -29798,7 +29799,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C178" s="6">
         <v>82</v>
@@ -29926,7 +29927,7 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C179" s="6">
         <v>64</v>
@@ -30046,7 +30047,7 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C180" s="6">
         <v>75</v>
@@ -30174,7 +30175,7 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C181" s="6">
         <v>73</v>
@@ -30286,7 +30287,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C182" s="6">
         <v>64</v>
@@ -30414,7 +30415,7 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C183" s="6">
         <v>80</v>
@@ -30544,7 +30545,7 @@
         <v>79</v>
       </c>
       <c r="BA183" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="BC183" s="11">
         <v>6</v>
@@ -30561,7 +30562,7 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C184" s="6">
         <v>56</v>
@@ -30713,7 +30714,7 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C185" s="6">
         <v>37</v>
@@ -30861,7 +30862,7 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C186" s="6">
         <v>72</v>
@@ -30977,7 +30978,7 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C187" s="6">
         <v>36</v>
@@ -31123,7 +31124,7 @@
         <v>32</v>
       </c>
       <c r="BA187" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC187" s="11">
         <v>3</v>
@@ -31140,7 +31141,7 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C188" s="6">
         <v>73</v>
@@ -31252,7 +31253,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C189" s="6">
         <v>86</v>
@@ -31362,7 +31363,7 @@
         <v>137</v>
       </c>
       <c r="BB189" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="BC189" s="11">
         <v>3</v>
@@ -31379,7 +31380,7 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C190" s="6">
         <v>93</v>
@@ -31523,7 +31524,7 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C191" s="6">
         <v>99</v>
@@ -31653,7 +31654,7 @@
         <v>137</v>
       </c>
       <c r="BA191" s="29" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="BC191" s="11">
         <v>6</v>
@@ -31670,7 +31671,7 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C192" s="6">
         <v>35</v>
@@ -31804,7 +31805,7 @@
         <v>32</v>
       </c>
       <c r="BA192" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC192" s="11">
         <v>5</v>
@@ -31821,7 +31822,7 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C193" s="6">
         <v>84</v>
@@ -31945,7 +31946,7 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C194" s="6">
         <v>48</v>
@@ -32069,7 +32070,7 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C195" s="6">
         <v>31</v>
@@ -32193,7 +32194,7 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C196" s="6">
         <v>54</v>
@@ -32301,7 +32302,7 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C197" s="6">
         <v>76</v>
@@ -32421,7 +32422,7 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C198" s="6">
         <v>65</v>
@@ -32569,7 +32570,7 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C199" s="6">
         <v>69</v>
@@ -32693,7 +32694,7 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C200" s="6">
         <v>73</v>
@@ -32805,7 +32806,7 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C201" s="6">
         <v>75</v>
@@ -32925,7 +32926,7 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C202" s="6">
         <v>95</v>
@@ -33089,7 +33090,7 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C203" s="6">
         <v>72</v>
@@ -33213,7 +33214,7 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C204" s="2">
         <v>76</v>
@@ -33341,7 +33342,7 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C205" s="2">
         <v>76</v>
@@ -33469,7 +33470,7 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C206" s="2">
         <v>77</v>
@@ -33601,7 +33602,7 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C207" s="2">
         <v>64</v>
@@ -33709,7 +33710,7 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C208" s="2">
         <v>69</v>
@@ -33829,7 +33830,7 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C209" s="2">
         <v>82</v>
@@ -33961,7 +33962,7 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C210" s="2">
         <v>90</v>
@@ -34113,7 +34114,7 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C211" s="2">
         <v>75</v>
@@ -34231,7 +34232,7 @@
         <v>241</v>
       </c>
       <c r="BB211" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BC211" s="11">
         <v>3</v>
@@ -34248,7 +34249,7 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C212" s="2">
         <v>78</v>
@@ -34376,7 +34377,7 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C213" s="2">
         <v>68</v>
@@ -34480,7 +34481,7 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C214" s="2">
         <v>69</v>
@@ -34596,7 +34597,7 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C215" s="2">
         <v>57</v>
@@ -34696,7 +34697,7 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C216" s="2">
         <v>82</v>
@@ -34828,7 +34829,7 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C217" s="2">
         <v>84</v>
@@ -34964,7 +34965,7 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C218" s="2">
         <v>76</v>
@@ -35096,7 +35097,7 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C219" s="2">
         <v>73</v>
@@ -35208,7 +35209,7 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C220" s="2">
         <v>66</v>
@@ -35298,7 +35299,7 @@
         <v>241</v>
       </c>
       <c r="BB220" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BC220" s="11">
         <v>3</v>
@@ -35315,7 +35316,7 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C221" s="2">
         <v>32</v>
@@ -35449,7 +35450,7 @@
         <v>241</v>
       </c>
       <c r="BB221" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BC221" s="11">
         <v>4</v>
@@ -35466,7 +35467,7 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C222" s="2">
         <v>92</v>
@@ -35576,7 +35577,7 @@
         <v>261</v>
       </c>
       <c r="BB222" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BC222" s="11">
         <v>4</v>
@@ -35593,7 +35594,7 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C223" s="2">
         <v>87</v>
@@ -35761,7 +35762,7 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C224" s="2">
         <v>66</v>
@@ -35865,7 +35866,7 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C225" s="2">
         <v>59</v>
@@ -35983,7 +35984,7 @@
         <v>109</v>
       </c>
       <c r="BB225" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="BC225" s="11">
         <v>4</v>
@@ -36000,7 +36001,7 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C226" s="2">
         <v>71</v>
@@ -36116,7 +36117,7 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C227" s="2">
         <v>75</v>
@@ -36240,7 +36241,7 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C228" s="2">
         <v>68</v>
@@ -36344,7 +36345,7 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C229" s="2">
         <v>36</v>
@@ -36512,7 +36513,7 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C230" s="2">
         <v>48</v>
@@ -36640,7 +36641,7 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C231" s="2">
         <v>33</v>
@@ -36780,7 +36781,7 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C232" s="2">
         <v>98</v>
@@ -36912,7 +36913,7 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C233" s="2">
         <v>63</v>
@@ -37060,7 +37061,7 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C234" s="2">
         <v>73</v>
@@ -37172,7 +37173,7 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C235" s="2">
         <v>37</v>
@@ -37304,7 +37305,7 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C236" s="2">
         <v>49</v>
@@ -37456,7 +37457,7 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C237" s="2">
         <v>49</v>
@@ -37596,7 +37597,7 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C238" s="2">
         <v>70</v>
@@ -37712,7 +37713,7 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C239" s="2">
         <v>78</v>
@@ -37840,7 +37841,7 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C240" s="2">
         <v>66</v>
@@ -37988,7 +37989,7 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C241" s="2">
         <v>84</v>
@@ -38124,7 +38125,7 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C242" s="6">
         <v>38</v>
@@ -38272,7 +38273,7 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C243" s="6">
         <v>52</v>
@@ -38404,7 +38405,7 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C244" s="6">
         <v>48</v>
@@ -38560,7 +38561,7 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C245" s="6">
         <v>61</v>
@@ -38688,7 +38689,7 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C246" s="6">
         <v>66</v>
@@ -38800,7 +38801,7 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C247" s="6">
         <v>32</v>
@@ -38932,7 +38933,7 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C248" s="6">
         <v>78</v>
@@ -39084,7 +39085,7 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C249" s="6">
         <v>34</v>
@@ -39208,7 +39209,7 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C250" s="6">
         <v>79</v>
@@ -39350,7 +39351,7 @@
         <v>18</v>
       </c>
       <c r="BA250" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC250" s="11">
         <v>6</v>
@@ -39367,7 +39368,7 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C251" s="6">
         <v>39</v>
@@ -39503,7 +39504,7 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C252" s="6">
         <v>51</v>
@@ -39631,7 +39632,7 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C253" s="6">
         <v>63</v>
@@ -39755,7 +39756,7 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C254" s="6">
         <v>72</v>
@@ -39883,7 +39884,7 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C255" s="6">
         <v>35</v>
@@ -40023,7 +40024,7 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C256" s="6">
         <v>39</v>
@@ -40163,7 +40164,7 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C257" s="6">
         <v>71</v>
@@ -40287,7 +40288,7 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C258" s="6">
         <v>46</v>
@@ -40407,7 +40408,7 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C259" s="6">
         <v>68</v>
@@ -40509,10 +40510,10 @@
         <v>109</v>
       </c>
       <c r="BA259" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="BB259" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="BC259" s="11">
         <v>2</v>
@@ -40529,7 +40530,7 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C260" s="6">
         <v>44</v>
@@ -40653,7 +40654,7 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C261" s="6">
         <v>36</v>
@@ -40777,7 +40778,7 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C262" s="6">
         <v>58</v>
@@ -40941,7 +40942,7 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C263" s="6">
         <v>86</v>
@@ -41093,7 +41094,7 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C264" s="6">
         <v>78</v>
@@ -41205,7 +41206,7 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C265" s="6">
         <v>74</v>
@@ -41321,7 +41322,7 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C266" s="6">
         <v>34</v>
@@ -41485,7 +41486,7 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C267" s="6">
         <v>91</v>
@@ -41595,7 +41596,7 @@
         <v>18</v>
       </c>
       <c r="BA267" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="BC267" s="11">
         <v>3</v>
@@ -41612,7 +41613,7 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C268" s="6">
         <v>45</v>
@@ -41760,7 +41761,7 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C269" s="6">
         <v>52</v>
@@ -41878,7 +41879,7 @@
         <v>92</v>
       </c>
       <c r="BB269" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="BC269" s="11">
         <v>6</v>
@@ -41895,7 +41896,7 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C270" s="6">
         <v>58</v>
@@ -42035,7 +42036,7 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C271" s="6">
         <v>81</v>
@@ -42151,7 +42152,7 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C272" s="6">
         <v>76</v>
@@ -42271,7 +42272,7 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C273" s="6">
         <v>72</v>
@@ -42379,7 +42380,7 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C274" s="6">
         <v>97</v>
@@ -42531,7 +42532,7 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C275" s="6">
         <v>74</v>
@@ -42647,7 +42648,7 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C276" s="6">
         <v>88</v>
@@ -42777,7 +42778,7 @@
         <v>32</v>
       </c>
       <c r="BA276" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC276" s="11">
         <v>5</v>
@@ -42794,7 +42795,7 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C277" s="6">
         <v>50</v>
@@ -42942,7 +42943,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C278" s="6">
         <v>46</v>
@@ -43050,7 +43051,7 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C279" s="6">
         <v>76</v>
@@ -43170,7 +43171,7 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C280" s="6">
         <v>45</v>
@@ -43318,7 +43319,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C281" s="6">
         <v>64</v>
@@ -43426,7 +43427,7 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C282" s="6">
         <v>55</v>
@@ -43558,7 +43559,7 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C283" s="6">
         <v>60</v>
@@ -43686,7 +43687,7 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C284" s="6">
         <v>70</v>
@@ -43798,7 +43799,7 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C285" s="6">
         <v>76</v>
@@ -43922,7 +43923,7 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C286" s="6">
         <v>38</v>
@@ -44066,7 +44067,7 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C287" s="6">
         <v>91</v>
@@ -44198,7 +44199,7 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C288" s="6">
         <v>61</v>
@@ -44326,7 +44327,7 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C289" s="6">
         <v>74</v>
@@ -44450,7 +44451,7 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C290" s="6">
         <v>75</v>
@@ -44556,7 +44557,7 @@
         <v>241</v>
       </c>
       <c r="BB290" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="BC290" s="11">
         <v>2</v>
@@ -44573,7 +44574,7 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C291" s="6">
         <v>53</v>
@@ -44697,7 +44698,7 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C292" s="6">
         <v>78</v>
@@ -44817,7 +44818,7 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C293" s="6">
         <v>73</v>
@@ -44933,7 +44934,7 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C294" s="6">
         <v>72</v>
@@ -45049,7 +45050,7 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C295" s="6">
         <v>47</v>
@@ -45197,7 +45198,7 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C296" s="6">
         <v>42</v>
@@ -45341,7 +45342,7 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C297" s="6">
         <v>47</v>
@@ -45477,7 +45478,7 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C298" s="6">
         <v>50</v>
@@ -45645,7 +45646,7 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C299" s="6">
         <v>48</v>
@@ -45773,7 +45774,7 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C300" s="6">
         <v>69</v>
@@ -45905,7 +45906,7 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C301" s="6">
         <v>71</v>
@@ -46029,7 +46030,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C302" s="6">
         <v>73</v>
@@ -46157,7 +46158,7 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C303" s="6">
         <v>65</v>
@@ -46273,7 +46274,7 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C304" s="6">
         <v>76</v>
@@ -46413,7 +46414,7 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>739</v>
+        <v>865</v>
       </c>
       <c r="C305" s="6">
         <v>81</v>
@@ -46533,7 +46534,7 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C306" s="6">
         <v>57</v>
@@ -46677,7 +46678,7 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C307" s="6">
         <v>87</v>
@@ -46801,7 +46802,7 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C308" s="6">
         <v>33</v>
@@ -46969,7 +46970,7 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C309" s="6">
         <v>79</v>
@@ -47089,7 +47090,7 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C310" s="6">
         <v>76</v>
@@ -47205,7 +47206,7 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C311" s="6">
         <v>71</v>
@@ -47313,7 +47314,7 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C312" s="6">
         <v>74</v>
@@ -47415,7 +47416,7 @@
         <v>137</v>
       </c>
       <c r="BB312" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="BC312" s="11">
         <v>4</v>
@@ -47432,7 +47433,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C313" s="6">
         <v>98</v>
@@ -47588,7 +47589,7 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C314" s="6">
         <v>76</v>
@@ -47694,7 +47695,7 @@
         <v>137</v>
       </c>
       <c r="BB314" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="BC314" s="11">
         <v>4</v>
@@ -47711,7 +47712,7 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C315" s="6">
         <v>44</v>
@@ -47843,7 +47844,7 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C316" s="6">
         <v>42</v>
@@ -47999,7 +48000,7 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C317" s="6">
         <v>44</v>
@@ -48151,7 +48152,7 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C318" s="6">
         <v>48</v>
@@ -48283,7 +48284,7 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C319" s="6">
         <v>67</v>
@@ -48403,7 +48404,7 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C320" s="6">
         <v>63</v>
@@ -48539,7 +48540,7 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C321" s="6">
         <v>73</v>
@@ -48663,7 +48664,7 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C322" s="6">
         <v>61</v>
@@ -48775,7 +48776,7 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C323" s="6">
         <v>42</v>
@@ -48911,7 +48912,7 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C324" s="6">
         <v>82</v>
@@ -49067,7 +49068,7 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C325" s="6">
         <v>68</v>
@@ -49183,7 +49184,7 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C326" s="6">
         <v>46</v>
@@ -49313,7 +49314,7 @@
         <v>32</v>
       </c>
       <c r="BB326" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="BC326" s="11">
         <v>4</v>
@@ -49330,7 +49331,7 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C327" s="6">
         <v>43</v>
@@ -49436,7 +49437,7 @@
         <v>109</v>
       </c>
       <c r="BB327" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="BC327" s="11">
         <v>3</v>
@@ -49453,7 +49454,7 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C328" s="6">
         <v>72</v>
@@ -49565,7 +49566,7 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C329" s="6">
         <v>42</v>
@@ -49683,10 +49684,10 @@
         <v>32</v>
       </c>
       <c r="BA329" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="BB329" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="BC329" s="11">
         <v>5</v>
@@ -49703,7 +49704,7 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C330" s="6">
         <v>62</v>
@@ -49823,7 +49824,7 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C331" s="6">
         <v>40</v>
@@ -49971,7 +49972,7 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C332" s="6">
         <v>38</v>
@@ -50061,7 +50062,7 @@
         <v>241</v>
       </c>
       <c r="BB332" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="BC332" s="11">
         <v>3</v>
@@ -50078,7 +50079,7 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
       <c r="C333" s="6">
         <v>42</v>
@@ -50198,7 +50199,7 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C334" s="6">
         <v>73</v>
@@ -50326,7 +50327,7 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C335" s="6">
         <v>82</v>
@@ -50446,7 +50447,7 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C336" s="6">
         <v>83</v>
@@ -50582,7 +50583,7 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C337" s="6">
         <v>75</v>
@@ -50698,7 +50699,7 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C338" s="6">
         <v>74</v>
@@ -50822,7 +50823,7 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C339" s="6">
         <v>42</v>
@@ -50946,7 +50947,7 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C340" s="6">
         <v>78</v>
@@ -51086,7 +51087,7 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C341" s="6">
         <v>56</v>
@@ -51238,7 +51239,7 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C342" s="6">
         <v>41</v>
@@ -51366,7 +51367,7 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C343" s="6">
         <v>72</v>
@@ -51490,7 +51491,7 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C344" s="6">
         <v>43</v>
@@ -51634,7 +51635,7 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C345" s="6">
         <v>56</v>
@@ -51738,7 +51739,7 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C346" s="6">
         <v>59</v>
@@ -51842,7 +51843,7 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C347" s="6">
         <v>41</v>
@@ -51982,7 +51983,7 @@
         <v>345</v>
       </c>
       <c r="B348" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C348" s="6">
         <v>80</v>
@@ -52122,7 +52123,7 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C349" s="6">
         <v>53</v>
@@ -52258,7 +52259,7 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C350" s="6">
         <v>68</v>
@@ -52414,7 +52415,7 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C351" s="6">
         <v>58</v>
@@ -52548,7 +52549,7 @@
         <v>32</v>
       </c>
       <c r="BB351" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="BC351" s="11">
         <v>4</v>
@@ -52565,7 +52566,7 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C352" s="6">
         <v>52</v>
@@ -52717,7 +52718,7 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C353" s="6">
         <v>84</v>
@@ -52849,7 +52850,7 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C354" s="6">
         <v>85</v>
@@ -53001,7 +53002,7 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C355" s="6">
         <v>77</v>
@@ -53117,7 +53118,7 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C356" s="6">
         <v>58</v>
@@ -53261,7 +53262,7 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C357" s="6">
         <v>76</v>
@@ -53373,7 +53374,7 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C358" s="6">
         <v>79</v>
@@ -53497,7 +53498,7 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C359" s="6">
         <v>69</v>
@@ -53639,7 +53640,7 @@
         <v>32</v>
       </c>
       <c r="BA359" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="BC359" s="11">
         <v>5</v>
@@ -53656,7 +53657,7 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C360" s="6">
         <v>71</v>
@@ -53796,7 +53797,7 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C361" s="6">
         <v>42</v>
@@ -53944,7 +53945,7 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C362" s="6">
         <v>77</v>
@@ -54080,7 +54081,7 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C363" s="6">
         <v>65</v>
@@ -54200,7 +54201,7 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C364" s="6">
         <v>66</v>
@@ -54308,7 +54309,7 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C365" s="6">
         <v>40</v>
@@ -54460,7 +54461,7 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C366" s="6">
         <v>71</v>
@@ -54584,7 +54585,7 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C367" s="6">
         <v>32</v>
@@ -54712,7 +54713,7 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C368" s="6">
         <v>62</v>
@@ -54864,7 +54865,7 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C369" s="6">
         <v>32</v>
@@ -55012,7 +55013,7 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C370" s="6">
         <v>68</v>
@@ -55128,7 +55129,7 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C371" s="6">
         <v>69</v>
@@ -55236,7 +55237,7 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C372" s="6">
         <v>79</v>
@@ -55360,7 +55361,7 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C373" s="6">
         <v>42</v>
@@ -55500,7 +55501,7 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C374" s="6">
         <v>82</v>
@@ -55644,7 +55645,7 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C375" s="6">
         <v>65</v>
@@ -55780,7 +55781,7 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C376" s="6">
         <v>66</v>
@@ -55888,7 +55889,7 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C377" s="6">
         <v>69</v>
@@ -56004,7 +56005,7 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C378" s="6">
         <v>45</v>
@@ -56148,7 +56149,7 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C379" s="6">
         <v>96</v>
@@ -56276,7 +56277,7 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C380" s="6">
         <v>93</v>
@@ -56412,7 +56413,7 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C381" s="6">
         <v>71</v>
@@ -56524,7 +56525,7 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C382" s="6">
         <v>66</v>
@@ -56676,7 +56677,7 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C383" s="6">
         <v>36</v>
@@ -56792,7 +56793,7 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C384" s="6">
         <v>97</v>
@@ -56940,7 +56941,7 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C385" s="6">
         <v>81</v>
@@ -57060,7 +57061,7 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C386" s="6">
         <v>32</v>
@@ -57180,7 +57181,7 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C387" s="6">
         <v>88</v>
@@ -57310,7 +57311,7 @@
         <v>137</v>
       </c>
       <c r="BB387" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="BC387" s="11">
         <v>5</v>
@@ -57327,7 +57328,7 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C388" s="6">
         <v>99</v>
@@ -57477,7 +57478,7 @@
         <v>18</v>
       </c>
       <c r="BA388" s="29" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="BC388" s="11">
         <v>6</v>
@@ -57494,7 +57495,7 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C389" s="6">
         <v>84</v>
@@ -57608,7 +57609,7 @@
         <v>137</v>
       </c>
       <c r="BB389" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="BC389" s="11">
         <v>5</v>
@@ -57625,7 +57626,7 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C390" s="6">
         <v>81</v>
@@ -57735,7 +57736,7 @@
         <v>92</v>
       </c>
       <c r="BB390" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="BC390" s="11">
         <v>6</v>
@@ -57752,7 +57753,7 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C391" s="6">
         <v>88</v>
@@ -57878,7 +57879,7 @@
         <v>18</v>
       </c>
       <c r="BB391" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="BC391" s="11">
         <v>5</v>
@@ -57895,7 +57896,7 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C392" s="6">
         <v>37</v>
@@ -58043,7 +58044,7 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C393" s="6">
         <v>80</v>
@@ -58163,7 +58164,7 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C394" s="6">
         <v>74</v>
@@ -58271,7 +58272,7 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C395" s="6">
         <v>39</v>
@@ -58411,7 +58412,7 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C396" s="6">
         <v>70</v>
@@ -58527,7 +58528,7 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C397" s="6">
         <v>76</v>
@@ -58629,7 +58630,7 @@
         <v>79</v>
       </c>
       <c r="BA397" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="BC397" s="11">
         <v>3</v>
@@ -58646,7 +58647,7 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C398" s="6">
         <v>89</v>
@@ -58798,7 +58799,7 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C399" s="6">
         <v>77</v>
@@ -58918,7 +58919,7 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C400" s="6">
         <v>54</v>
@@ -59062,7 +59063,7 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C401" s="6">
         <v>53</v>
@@ -59194,7 +59195,7 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C402" s="6">
         <v>72</v>
@@ -59306,7 +59307,7 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C403" s="16">
         <v>43</v>

--- a/sg02/Assets/Resources/Config/Excel/Generals.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Generals.xlsx
@@ -2884,7 +2884,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8262" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8262" uniqueCount="836">
   <si>
     <t>落石</t>
   </si>
@@ -3977,166 +3977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Magic01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicLevel08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLevel08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeriodState05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5977,19 +5817,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PeriodState02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘繇（正礼）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>彻里吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicLevel[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicLevel[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffLevel[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeriodState[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6635,14 +6515,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="15.125" customWidth="1"/>
+    <col min="25" max="25" width="13.125" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
+    <col min="31" max="31" width="12.5" customWidth="1"/>
+    <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="33" max="33" width="12.75" customWidth="1"/>
+    <col min="35" max="35" width="12.625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="13.75" customWidth="1"/>
+    <col min="43" max="43" width="13.75" customWidth="1"/>
+    <col min="45" max="45" width="13.875" customWidth="1"/>
+    <col min="47" max="47" width="14" customWidth="1"/>
     <col min="49" max="49" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6663,506 +6567,506 @@
         <v>361</v>
       </c>
       <c r="F1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J1" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L1" t="s">
+        <v>826</v>
+      </c>
+      <c r="M1" t="s">
+        <v>828</v>
+      </c>
+      <c r="N1" t="s">
+        <v>826</v>
+      </c>
+      <c r="O1" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>828</v>
+      </c>
+      <c r="R1" t="s">
+        <v>826</v>
+      </c>
+      <c r="S1" t="s">
+        <v>828</v>
+      </c>
+      <c r="T1" t="s">
+        <v>826</v>
+      </c>
+      <c r="U1" t="s">
+        <v>828</v>
+      </c>
+      <c r="V1" t="s">
+        <v>829</v>
+      </c>
+      <c r="W1" t="s">
+        <v>830</v>
+      </c>
+      <c r="X1" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>830</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>832</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>833</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AV1" t="s">
         <v>362</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AW1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX1" t="s">
         <v>363</v>
       </c>
-      <c r="H1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="AY1" t="s">
         <v>365</v>
       </c>
-      <c r="K1" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="AZ1" t="s">
         <v>366</v>
       </c>
-      <c r="M1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="BA1" t="s">
         <v>367</v>
       </c>
-      <c r="O1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="BB1" t="s">
         <v>368</v>
       </c>
-      <c r="Q1" t="s">
-        <v>376</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="BC1" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="S1" t="s">
-        <v>377</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="BD1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE1" t="s">
         <v>370</v>
-      </c>
-      <c r="U1" t="s">
-        <v>378</v>
-      </c>
-      <c r="V1" t="s">
-        <v>371</v>
-      </c>
-      <c r="W1" t="s">
-        <v>379</v>
-      </c>
-      <c r="X1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>862</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>411</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="V2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="W2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="X2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Y2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="Z2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AA2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AB2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AC2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AD2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AE2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AF2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AG2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AH2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AI2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AJ2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AK2" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="AL2" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="AM2" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="AN2" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="AO2" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="AP2" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="AQ2" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="AR2" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="AS2" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="AT2" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="AU2" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="AV2" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="AW2" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="AX2" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="AY2" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="AZ2" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="BA2" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="BB2" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="BC2" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="BD2" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="BE2" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="I3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="J3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="K3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="L3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="M3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="N3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="P3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="Q3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="R3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="S3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="T3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="U3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="V3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="W3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="X3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="Y3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="Z3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AA3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AB3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AC3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AD3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AE3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AF3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AG3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AH3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AI3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AJ3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AK3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AL3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AM3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AN3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AO3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AP3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AQ3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AR3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AS3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AT3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AU3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AV3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AW3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AX3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AY3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AZ3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="BA3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="BB3" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="BC3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="BD3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="BE3" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
@@ -7170,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2">
         <v>80</v>
@@ -7302,7 +7206,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="C5" s="2">
         <v>74</v>
@@ -7426,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
@@ -7586,7 +7490,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2">
         <v>81</v>
@@ -7730,7 +7634,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C8" s="2">
         <v>88</v>
@@ -7850,7 +7754,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2">
         <v>72</v>
@@ -7966,7 +7870,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="C10" s="2">
         <v>46</v>
@@ -8096,7 +8000,7 @@
         <v>92</v>
       </c>
       <c r="BA10" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="BC10" s="11">
         <v>6</v>
@@ -8113,7 +8017,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="C11" s="2">
         <v>68</v>
@@ -8219,7 +8123,7 @@
         <v>92</v>
       </c>
       <c r="BA11" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="BC11" s="11">
         <v>6</v>
@@ -8236,7 +8140,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C12" s="2">
         <v>76</v>
@@ -8352,7 +8256,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C13" s="2">
         <v>64</v>
@@ -8484,7 +8388,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C14" s="2">
         <v>88</v>
@@ -8600,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C15" s="2">
         <v>82</v>
@@ -8724,7 +8628,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="C16" s="2">
         <v>65</v>
@@ -8818,7 +8722,7 @@
         <v>79</v>
       </c>
       <c r="BA16" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="BC16" s="11">
         <v>3</v>
@@ -8835,7 +8739,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C17" s="2">
         <v>86</v>
@@ -8971,7 +8875,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C18" s="2">
         <v>73</v>
@@ -9083,7 +8987,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="C19" s="2">
         <v>97</v>
@@ -9231,7 +9135,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="C20" s="2">
         <v>42</v>
@@ -9367,7 +9271,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="C21" s="2">
         <v>45</v>
@@ -9519,7 +9423,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C22" s="2">
         <v>83</v>
@@ -9639,7 +9543,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="C23" s="2">
         <v>82</v>
@@ -9767,7 +9671,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
@@ -9891,7 +9795,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="C25" s="2">
         <v>96</v>
@@ -10019,7 +9923,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="C26" s="2">
         <v>78</v>
@@ -10143,7 +10047,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C27" s="2">
         <v>71</v>
@@ -10275,7 +10179,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C28" s="2">
         <v>64</v>
@@ -10399,7 +10303,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C29" s="2">
         <v>78</v>
@@ -10519,7 +10423,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="C30" s="2">
         <v>65</v>
@@ -10639,7 +10543,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="C31" s="2">
         <v>42</v>
@@ -10767,7 +10671,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C32" s="2">
         <v>77</v>
@@ -10907,7 +10811,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C33" s="2">
         <v>48</v>
@@ -11035,7 +10939,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C34" s="2">
         <v>60</v>
@@ -11191,7 +11095,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C35" s="2">
         <v>68</v>
@@ -11295,7 +11199,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="C36" s="2">
         <v>76</v>
@@ -11419,7 +11323,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="C37" s="2">
         <v>48</v>
@@ -11559,7 +11463,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C38" s="2">
         <v>66</v>
@@ -11671,7 +11575,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="C39" s="2">
         <v>41</v>
@@ -11815,7 +11719,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="C40" s="2">
         <v>64</v>
@@ -11919,7 +11823,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="C41" s="2">
         <v>80</v>
@@ -12055,7 +11959,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="C42" s="6">
         <v>84</v>
@@ -12203,7 +12107,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="C43" s="6">
         <v>38</v>
@@ -12335,7 +12239,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="C44" s="6">
         <v>81</v>
@@ -12453,7 +12357,7 @@
         <v>32</v>
       </c>
       <c r="BB44" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="BC44" s="11">
         <v>3</v>
@@ -12470,7 +12374,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C45" s="6">
         <v>67</v>
@@ -12596,7 +12500,7 @@
         <v>241</v>
       </c>
       <c r="BB45" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="BC45" s="11">
         <v>4</v>
@@ -12613,7 +12517,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="C46" s="6">
         <v>66</v>
@@ -12747,7 +12651,7 @@
         <v>50</v>
       </c>
       <c r="BB46" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="BC46" s="11">
         <v>4</v>
@@ -12764,7 +12668,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="C47" s="6">
         <v>32</v>
@@ -12932,7 +12836,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="C48" s="6">
         <v>71</v>
@@ -13088,7 +12992,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C49" s="6">
         <v>33</v>
@@ -13256,7 +13160,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="C50" s="6">
         <v>64</v>
@@ -13396,7 +13300,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="C51" s="6">
         <v>96</v>
@@ -13540,7 +13444,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="C52" s="6">
         <v>52</v>
@@ -13696,7 +13600,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="C53" s="6">
         <v>74</v>
@@ -13820,7 +13724,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C54" s="6">
         <v>70</v>
@@ -13944,7 +13848,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C55" s="6">
         <v>44</v>
@@ -14084,7 +13988,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="C56" s="6">
         <v>84</v>
@@ -14220,7 +14124,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="C57" s="6">
         <v>75</v>
@@ -14344,7 +14248,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C58" s="6">
         <v>34</v>
@@ -14492,7 +14396,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="C59" s="6">
         <v>72</v>
@@ -14624,7 +14528,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C60" s="6">
         <v>72</v>
@@ -14736,7 +14640,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C61" s="6">
         <v>62</v>
@@ -14856,7 +14760,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="C62" s="6">
         <v>86</v>
@@ -15000,7 +14904,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C63" s="6">
         <v>58</v>
@@ -15100,7 +15004,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="C64" s="6">
         <v>76</v>
@@ -15220,7 +15124,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C65" s="6">
         <v>75</v>
@@ -15348,7 +15252,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="C66" s="6">
         <v>67</v>
@@ -15460,7 +15364,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C67" s="6">
         <v>81</v>
@@ -15584,7 +15488,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C68" s="6">
         <v>74</v>
@@ -15700,7 +15604,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="C69" s="6">
         <v>68</v>
@@ -15812,7 +15716,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="C70" s="6">
         <v>66</v>
@@ -15928,7 +15832,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C71" s="6">
         <v>35</v>
@@ -16036,7 +15940,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="C72" s="6">
         <v>43</v>
@@ -16152,7 +16056,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="C73" s="6">
         <v>78</v>
@@ -16276,7 +16180,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="C74" s="6">
         <v>79</v>
@@ -16416,7 +16320,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="C75" s="6">
         <v>100</v>
@@ -16544,7 +16448,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="C76" s="6">
         <v>67</v>
@@ -16656,7 +16560,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="C77" s="6">
         <v>71</v>
@@ -16764,7 +16668,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="C78" s="6">
         <v>73</v>
@@ -16896,7 +16800,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="C79" s="6">
         <v>85</v>
@@ -17034,7 +16938,7 @@
         <v>18</v>
       </c>
       <c r="BA79" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BC79" s="11">
         <v>5</v>
@@ -17051,7 +16955,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="C80" s="6">
         <v>48</v>
@@ -17191,7 +17095,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="C81" s="6">
         <v>71</v>
@@ -17307,7 +17211,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C82" s="6">
         <v>68</v>
@@ -17419,7 +17323,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="C83" s="6">
         <v>80</v>
@@ -17563,7 +17467,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="C84" s="6">
         <v>54</v>
@@ -17711,7 +17615,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="C85" s="6">
         <v>77</v>
@@ -17835,7 +17739,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="C86" s="6">
         <v>44</v>
@@ -17967,7 +17871,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="C87" s="6">
         <v>74</v>
@@ -18079,7 +17983,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="C88" s="6">
         <v>42</v>
@@ -18213,7 +18117,7 @@
         <v>50</v>
       </c>
       <c r="BA88" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="BC88" s="11">
         <v>2</v>
@@ -18230,7 +18134,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="C89" s="6">
         <v>76</v>
@@ -18342,7 +18246,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="C90" s="6">
         <v>82</v>
@@ -18482,7 +18386,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="C91" s="6">
         <v>79</v>
@@ -18594,7 +18498,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="C92" s="6">
         <v>40</v>
@@ -18738,7 +18642,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="C93" s="6">
         <v>92</v>
@@ -18858,7 +18762,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="C94" s="6">
         <v>72</v>
@@ -18978,7 +18882,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="C95" s="6">
         <v>47</v>
@@ -19118,7 +19022,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C96" s="6">
         <v>65</v>
@@ -19254,7 +19158,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="C97" s="6">
         <v>79</v>
@@ -19370,7 +19274,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="C98" s="6">
         <v>98</v>
@@ -19494,7 +19398,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="C99" s="6">
         <v>64</v>
@@ -19610,7 +19514,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="C100" s="6">
         <v>72</v>
@@ -19722,7 +19626,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="C101" s="6">
         <v>85</v>
@@ -19854,7 +19758,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="C102" s="6">
         <v>82</v>
@@ -20006,7 +19910,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="C103" s="6">
         <v>78</v>
@@ -20148,7 +20052,7 @@
         <v>32</v>
       </c>
       <c r="BA103" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BC103" s="11">
         <v>6</v>
@@ -20165,7 +20069,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="C104" s="6">
         <v>45</v>
@@ -20305,7 +20209,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="C105" s="6">
         <v>73</v>
@@ -20437,7 +20341,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="C106" s="6">
         <v>85</v>
@@ -20553,7 +20457,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="C107" s="6">
         <v>89</v>
@@ -20681,7 +20585,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="C108" s="6">
         <v>70</v>
@@ -20793,7 +20697,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="C109" s="6">
         <v>61</v>
@@ -20953,7 +20857,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="C110" s="6">
         <v>66</v>
@@ -21101,7 +21005,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="C111" s="6">
         <v>57</v>
@@ -21217,7 +21121,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="C112" s="6">
         <v>65</v>
@@ -21337,7 +21241,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="C113" s="6">
         <v>78</v>
@@ -21449,7 +21353,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="C114" s="6">
         <v>78</v>
@@ -21565,7 +21469,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="C115" s="6">
         <v>71</v>
@@ -21689,7 +21593,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="C116" s="6">
         <v>93</v>
@@ -21841,7 +21745,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="C117" s="6">
         <v>69</v>
@@ -21969,7 +21873,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="C118" s="6">
         <v>85</v>
@@ -22089,7 +21993,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="C119" s="6">
         <v>74</v>
@@ -22205,7 +22109,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="C120" s="6">
         <v>68</v>
@@ -22321,7 +22225,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="C121" s="6">
         <v>61</v>
@@ -22429,7 +22333,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="C122" s="6">
         <v>83</v>
@@ -22557,7 +22461,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="C123" s="6">
         <v>82</v>
@@ -22677,7 +22581,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="C124" s="6">
         <v>44</v>
@@ -22805,7 +22709,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="C125" s="6">
         <v>62</v>
@@ -22941,7 +22845,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="C126" s="6">
         <v>73</v>
@@ -23051,7 +22955,7 @@
         <v>79</v>
       </c>
       <c r="BB126" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="BC126" s="11">
         <v>4</v>
@@ -23068,7 +22972,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="C127" s="6">
         <v>77</v>
@@ -23196,7 +23100,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="C128" s="6">
         <v>72</v>
@@ -23316,7 +23220,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="C129" s="6">
         <v>96</v>
@@ -23472,7 +23376,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="C130" s="6">
         <v>93</v>
@@ -23612,7 +23516,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="C131" s="6">
         <v>63</v>
@@ -23724,7 +23628,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="C132" s="6">
         <v>68</v>
@@ -23840,7 +23744,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="C133" s="6">
         <v>90</v>
@@ -23958,7 +23862,7 @@
         <v>18</v>
       </c>
       <c r="BB133" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="BC133" s="11">
         <v>4</v>
@@ -23975,7 +23879,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="C134" s="6">
         <v>82</v>
@@ -24097,10 +24001,10 @@
         <v>92</v>
       </c>
       <c r="BA134" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BB134" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC134" s="11">
         <v>6</v>
@@ -24117,7 +24021,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="C135" s="6">
         <v>62</v>
@@ -24221,7 +24125,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="C136" s="6">
         <v>75</v>
@@ -24349,7 +24253,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="C137" s="6">
         <v>41</v>
@@ -24493,7 +24397,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="C138" s="6">
         <v>94</v>
@@ -24645,7 +24549,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="C139" s="6">
         <v>81</v>
@@ -24747,10 +24651,10 @@
         <v>18</v>
       </c>
       <c r="BA139" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BB139" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC139" s="11">
         <v>4</v>
@@ -24767,7 +24671,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="C140" s="6">
         <v>33</v>
@@ -24907,7 +24811,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C141" s="6">
         <v>79</v>
@@ -25031,7 +24935,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C142" s="6">
         <v>95</v>
@@ -25161,10 +25065,10 @@
         <v>137</v>
       </c>
       <c r="BA142" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BB142" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC142" s="11">
         <v>5</v>
@@ -25181,7 +25085,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C143" s="6">
         <v>82</v>
@@ -25299,7 +25203,7 @@
         <v>18</v>
       </c>
       <c r="BA143" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BC143" s="11">
         <v>3</v>
@@ -25316,7 +25220,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="C144" s="6">
         <v>55</v>
@@ -25446,7 +25350,7 @@
         <v>32</v>
       </c>
       <c r="BA144" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BC144" s="11">
         <v>4</v>
@@ -25463,7 +25367,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C145" s="6">
         <v>69</v>
@@ -25591,7 +25495,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="C146" s="6">
         <v>85</v>
@@ -25729,10 +25633,10 @@
         <v>18</v>
       </c>
       <c r="BA146" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="BB146" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC146" s="11">
         <v>5</v>
@@ -25749,7 +25653,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="C147" s="6">
         <v>93</v>
@@ -25897,7 +25801,7 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C148" s="6">
         <v>66</v>
@@ -26057,7 +25961,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C149" s="6">
         <v>76</v>
@@ -26201,7 +26105,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="C150" s="6">
         <v>80</v>
@@ -26303,7 +26207,7 @@
         <v>18</v>
       </c>
       <c r="BA150" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
       <c r="BC150" s="11">
         <v>3</v>
@@ -26320,7 +26224,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="C151" s="6">
         <v>66</v>
@@ -26424,7 +26328,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="C152" s="6">
         <v>41</v>
@@ -26564,7 +26468,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C153" s="6">
         <v>74</v>
@@ -26688,7 +26592,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="C154" s="6">
         <v>83</v>
@@ -26808,7 +26712,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C155" s="6">
         <v>36</v>
@@ -26948,7 +26852,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C156" s="6">
         <v>43</v>
@@ -27080,7 +26984,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="C157" s="6">
         <v>52</v>
@@ -27244,7 +27148,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="C158" s="6">
         <v>46</v>
@@ -27408,7 +27312,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C159" s="6">
         <v>71</v>
@@ -27510,7 +27414,7 @@
         <v>50</v>
       </c>
       <c r="BB159" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="BC159" s="11">
         <v>4</v>
@@ -27527,7 +27431,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="C160" s="6">
         <v>43</v>
@@ -27647,7 +27551,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="C161" s="6">
         <v>81</v>
@@ -27783,7 +27687,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="C162" s="6">
         <v>75</v>
@@ -27915,7 +27819,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="C163" s="6">
         <v>64</v>
@@ -28029,7 +27933,7 @@
         <v>109</v>
       </c>
       <c r="BB163" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="BC163" s="11">
         <v>4</v>
@@ -28046,7 +27950,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="C164" s="6">
         <v>65</v>
@@ -28144,7 +28048,7 @@
         <v>18</v>
       </c>
       <c r="BB164" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="BC164" s="11">
         <v>3</v>
@@ -28161,7 +28065,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="C165" s="6">
         <v>81</v>
@@ -28277,7 +28181,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="C166" s="6">
         <v>82</v>
@@ -28429,7 +28333,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="C167" s="6">
         <v>68</v>
@@ -28537,7 +28441,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="C168" s="6">
         <v>42</v>
@@ -28685,7 +28589,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="C169" s="6">
         <v>85</v>
@@ -28813,7 +28717,7 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="C170" s="6">
         <v>64</v>
@@ -28929,7 +28833,7 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="C171" s="6">
         <v>70</v>
@@ -29045,7 +28949,7 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="C172" s="6">
         <v>98</v>
@@ -29167,7 +29071,7 @@
         <v>137</v>
       </c>
       <c r="BB172" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="BC172" s="11">
         <v>4</v>
@@ -29184,7 +29088,7 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="C173" s="6">
         <v>74</v>
@@ -29328,7 +29232,7 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="C174" s="6">
         <v>91</v>
@@ -29468,7 +29372,7 @@
         <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="C175" s="6">
         <v>68</v>
@@ -29576,7 +29480,7 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="C176" s="6">
         <v>64</v>
@@ -29674,7 +29578,7 @@
         <v>79</v>
       </c>
       <c r="BA176" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="BC176" s="11">
         <v>3</v>
@@ -29691,7 +29595,7 @@
         <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="C177" s="6">
         <v>67</v>
@@ -29799,7 +29703,7 @@
         <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="C178" s="6">
         <v>82</v>
@@ -29927,7 +29831,7 @@
         <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="C179" s="6">
         <v>64</v>
@@ -30047,7 +29951,7 @@
         <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="C180" s="6">
         <v>75</v>
@@ -30175,7 +30079,7 @@
         <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="C181" s="6">
         <v>73</v>
@@ -30287,7 +30191,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="C182" s="6">
         <v>64</v>
@@ -30415,7 +30319,7 @@
         <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="C183" s="6">
         <v>80</v>
@@ -30545,7 +30449,7 @@
         <v>79</v>
       </c>
       <c r="BA183" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="BC183" s="11">
         <v>6</v>
@@ -30562,7 +30466,7 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="C184" s="6">
         <v>56</v>
@@ -30714,7 +30618,7 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="C185" s="6">
         <v>37</v>
@@ -30862,7 +30766,7 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="C186" s="6">
         <v>72</v>
@@ -30978,7 +30882,7 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="C187" s="6">
         <v>36</v>
@@ -31124,7 +31028,7 @@
         <v>32</v>
       </c>
       <c r="BA187" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC187" s="11">
         <v>3</v>
@@ -31141,7 +31045,7 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="C188" s="6">
         <v>73</v>
@@ -31253,7 +31157,7 @@
         <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C189" s="6">
         <v>86</v>
@@ -31363,7 +31267,7 @@
         <v>137</v>
       </c>
       <c r="BB189" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="BC189" s="11">
         <v>3</v>
@@ -31380,7 +31284,7 @@
         <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="C190" s="6">
         <v>93</v>
@@ -31524,7 +31428,7 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="C191" s="6">
         <v>99</v>
@@ -31654,7 +31558,7 @@
         <v>137</v>
       </c>
       <c r="BA191" s="29" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="BC191" s="11">
         <v>6</v>
@@ -31671,7 +31575,7 @@
         <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="C192" s="6">
         <v>35</v>
@@ -31805,7 +31709,7 @@
         <v>32</v>
       </c>
       <c r="BA192" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC192" s="11">
         <v>5</v>
@@ -31822,7 +31726,7 @@
         <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="C193" s="6">
         <v>84</v>
@@ -31946,7 +31850,7 @@
         <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="C194" s="6">
         <v>48</v>
@@ -32070,7 +31974,7 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="C195" s="6">
         <v>31</v>
@@ -32194,7 +32098,7 @@
         <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="C196" s="6">
         <v>54</v>
@@ -32302,7 +32206,7 @@
         <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="C197" s="6">
         <v>76</v>
@@ -32422,7 +32326,7 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="C198" s="6">
         <v>65</v>
@@ -32570,7 +32474,7 @@
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="C199" s="6">
         <v>69</v>
@@ -32694,7 +32598,7 @@
         <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="C200" s="6">
         <v>73</v>
@@ -32806,7 +32710,7 @@
         <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="C201" s="6">
         <v>75</v>
@@ -32926,7 +32830,7 @@
         <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="C202" s="6">
         <v>95</v>
@@ -33090,7 +32994,7 @@
         <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="C203" s="6">
         <v>72</v>
@@ -33214,7 +33118,7 @@
         <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="C204" s="2">
         <v>76</v>
@@ -33342,7 +33246,7 @@
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="C205" s="2">
         <v>76</v>
@@ -33470,7 +33374,7 @@
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="C206" s="2">
         <v>77</v>
@@ -33602,7 +33506,7 @@
         <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="C207" s="2">
         <v>64</v>
@@ -33710,7 +33614,7 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="C208" s="2">
         <v>69</v>
@@ -33830,7 +33734,7 @@
         <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="C209" s="2">
         <v>82</v>
@@ -33962,7 +33866,7 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="C210" s="2">
         <v>90</v>
@@ -34114,7 +34018,7 @@
         <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="C211" s="2">
         <v>75</v>
@@ -34232,7 +34136,7 @@
         <v>241</v>
       </c>
       <c r="BB211" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC211" s="11">
         <v>3</v>
@@ -34249,7 +34153,7 @@
         <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="C212" s="2">
         <v>78</v>
@@ -34377,7 +34281,7 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C213" s="2">
         <v>68</v>
@@ -34481,7 +34385,7 @@
         <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="C214" s="2">
         <v>69</v>
@@ -34597,7 +34501,7 @@
         <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="C215" s="2">
         <v>57</v>
@@ -34697,7 +34601,7 @@
         <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="C216" s="2">
         <v>82</v>
@@ -34829,7 +34733,7 @@
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="C217" s="2">
         <v>84</v>
@@ -34965,7 +34869,7 @@
         <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
       <c r="C218" s="2">
         <v>76</v>
@@ -35097,7 +35001,7 @@
         <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="C219" s="2">
         <v>73</v>
@@ -35209,7 +35113,7 @@
         <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="C220" s="2">
         <v>66</v>
@@ -35299,7 +35203,7 @@
         <v>241</v>
       </c>
       <c r="BB220" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC220" s="11">
         <v>3</v>
@@ -35316,7 +35220,7 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="C221" s="2">
         <v>32</v>
@@ -35450,7 +35354,7 @@
         <v>241</v>
       </c>
       <c r="BB221" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC221" s="11">
         <v>4</v>
@@ -35467,7 +35371,7 @@
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="C222" s="2">
         <v>92</v>
@@ -35577,7 +35481,7 @@
         <v>261</v>
       </c>
       <c r="BB222" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC222" s="11">
         <v>4</v>
@@ -35594,7 +35498,7 @@
         <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="C223" s="2">
         <v>87</v>
@@ -35762,7 +35666,7 @@
         <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="C224" s="2">
         <v>66</v>
@@ -35866,7 +35770,7 @@
         <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="C225" s="2">
         <v>59</v>
@@ -35984,7 +35888,7 @@
         <v>109</v>
       </c>
       <c r="BB225" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="BC225" s="11">
         <v>4</v>
@@ -36001,7 +35905,7 @@
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="C226" s="2">
         <v>71</v>
@@ -36117,7 +36021,7 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="C227" s="2">
         <v>75</v>
@@ -36241,7 +36145,7 @@
         <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="C228" s="2">
         <v>68</v>
@@ -36345,7 +36249,7 @@
         <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="C229" s="2">
         <v>36</v>
@@ -36513,7 +36417,7 @@
         <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="C230" s="2">
         <v>48</v>
@@ -36641,7 +36545,7 @@
         <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="C231" s="2">
         <v>33</v>
@@ -36781,7 +36685,7 @@
         <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="C232" s="2">
         <v>98</v>
@@ -36913,7 +36817,7 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="C233" s="2">
         <v>63</v>
@@ -37061,7 +36965,7 @@
         <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="C234" s="2">
         <v>73</v>
@@ -37173,7 +37077,7 @@
         <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="C235" s="2">
         <v>37</v>
@@ -37305,7 +37209,7 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="C236" s="2">
         <v>49</v>
@@ -37457,7 +37361,7 @@
         <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="C237" s="2">
         <v>49</v>
@@ -37597,7 +37501,7 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="C238" s="2">
         <v>70</v>
@@ -37713,7 +37617,7 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="C239" s="2">
         <v>78</v>
@@ -37841,7 +37745,7 @@
         <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="C240" s="2">
         <v>66</v>
@@ -37989,7 +37893,7 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="C241" s="2">
         <v>84</v>
@@ -38125,7 +38029,7 @@
         <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="C242" s="6">
         <v>38</v>
@@ -38273,7 +38177,7 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="C243" s="6">
         <v>52</v>
@@ -38405,7 +38309,7 @@
         <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="C244" s="6">
         <v>48</v>
@@ -38561,7 +38465,7 @@
         <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="C245" s="6">
         <v>61</v>
@@ -38689,7 +38593,7 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="C246" s="6">
         <v>66</v>
@@ -38801,7 +38705,7 @@
         <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="C247" s="6">
         <v>32</v>
@@ -38933,7 +38837,7 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="C248" s="6">
         <v>78</v>
@@ -39085,7 +38989,7 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="C249" s="6">
         <v>34</v>
@@ -39209,7 +39113,7 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="C250" s="6">
         <v>79</v>
@@ -39351,7 +39255,7 @@
         <v>18</v>
       </c>
       <c r="BA250" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC250" s="11">
         <v>6</v>
@@ -39368,7 +39272,7 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="C251" s="6">
         <v>39</v>
@@ -39504,7 +39408,7 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="C252" s="6">
         <v>51</v>
@@ -39632,7 +39536,7 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="C253" s="6">
         <v>63</v>
@@ -39756,7 +39660,7 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="C254" s="6">
         <v>72</v>
@@ -39884,7 +39788,7 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="C255" s="6">
         <v>35</v>
@@ -40024,7 +39928,7 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="C256" s="6">
         <v>39</v>
@@ -40164,7 +40068,7 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="C257" s="6">
         <v>71</v>
@@ -40288,7 +40192,7 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="C258" s="6">
         <v>46</v>
@@ -40408,7 +40312,7 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="C259" s="6">
         <v>68</v>
@@ -40510,10 +40414,10 @@
         <v>109</v>
       </c>
       <c r="BA259" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="BB259" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="BC259" s="11">
         <v>2</v>
@@ -40530,7 +40434,7 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="C260" s="6">
         <v>44</v>
@@ -40654,7 +40558,7 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="C261" s="6">
         <v>36</v>
@@ -40778,7 +40682,7 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="C262" s="6">
         <v>58</v>
@@ -40942,7 +40846,7 @@
         <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="C263" s="6">
         <v>86</v>
@@ -41094,7 +40998,7 @@
         <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="C264" s="6">
         <v>78</v>
@@ -41206,7 +41110,7 @@
         <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="C265" s="6">
         <v>74</v>
@@ -41322,7 +41226,7 @@
         <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="C266" s="6">
         <v>34</v>
@@ -41486,7 +41390,7 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="C267" s="6">
         <v>91</v>
@@ -41596,7 +41500,7 @@
         <v>18</v>
       </c>
       <c r="BA267" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="BC267" s="11">
         <v>3</v>
@@ -41613,7 +41517,7 @@
         <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="C268" s="6">
         <v>45</v>
@@ -41761,7 +41665,7 @@
         <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="C269" s="6">
         <v>52</v>
@@ -41879,7 +41783,7 @@
         <v>92</v>
       </c>
       <c r="BB269" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
       <c r="BC269" s="11">
         <v>6</v>
@@ -41896,7 +41800,7 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="C270" s="6">
         <v>58</v>
@@ -42036,7 +41940,7 @@
         <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="C271" s="6">
         <v>81</v>
@@ -42152,7 +42056,7 @@
         <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>702</v>
+        <v>662</v>
       </c>
       <c r="C272" s="6">
         <v>76</v>
@@ -42272,7 +42176,7 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="C273" s="6">
         <v>72</v>
@@ -42380,7 +42284,7 @@
         <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
       <c r="C274" s="6">
         <v>97</v>
@@ -42532,7 +42436,7 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="C275" s="6">
         <v>74</v>
@@ -42648,7 +42552,7 @@
         <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="C276" s="6">
         <v>88</v>
@@ -42778,7 +42682,7 @@
         <v>32</v>
       </c>
       <c r="BA276" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC276" s="11">
         <v>5</v>
@@ -42795,7 +42699,7 @@
         <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="C277" s="6">
         <v>50</v>
@@ -42943,7 +42847,7 @@
         <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="C278" s="6">
         <v>46</v>
@@ -43051,7 +42955,7 @@
         <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>709</v>
+        <v>669</v>
       </c>
       <c r="C279" s="6">
         <v>76</v>
@@ -43171,7 +43075,7 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>710</v>
+        <v>670</v>
       </c>
       <c r="C280" s="6">
         <v>45</v>
@@ -43319,7 +43223,7 @@
         <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="C281" s="6">
         <v>64</v>
@@ -43427,7 +43331,7 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="C282" s="6">
         <v>55</v>
@@ -43559,7 +43463,7 @@
         <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>713</v>
+        <v>673</v>
       </c>
       <c r="C283" s="6">
         <v>60</v>
@@ -43687,7 +43591,7 @@
         <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="C284" s="6">
         <v>70</v>
@@ -43799,7 +43703,7 @@
         <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="C285" s="6">
         <v>76</v>
@@ -43923,7 +43827,7 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="C286" s="6">
         <v>38</v>
@@ -44067,7 +43971,7 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="C287" s="6">
         <v>91</v>
@@ -44199,7 +44103,7 @@
         <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="C288" s="6">
         <v>61</v>
@@ -44327,7 +44231,7 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="C289" s="6">
         <v>74</v>
@@ -44451,7 +44355,7 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="C290" s="6">
         <v>75</v>
@@ -44557,7 +44461,7 @@
         <v>241</v>
       </c>
       <c r="BB290" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="BC290" s="11">
         <v>2</v>
@@ -44574,7 +44478,7 @@
         <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="C291" s="6">
         <v>53</v>
@@ -44698,7 +44602,7 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="C292" s="6">
         <v>78</v>
@@ -44818,7 +44722,7 @@
         <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="C293" s="6">
         <v>73</v>
@@ -44934,7 +44838,7 @@
         <v>291</v>
       </c>
       <c r="B294" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="C294" s="6">
         <v>72</v>
@@ -45050,7 +44954,7 @@
         <v>292</v>
       </c>
       <c r="B295" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="C295" s="6">
         <v>47</v>
@@ -45198,7 +45102,7 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="C296" s="6">
         <v>42</v>
@@ -45342,7 +45246,7 @@
         <v>294</v>
       </c>
       <c r="B297" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="C297" s="6">
         <v>47</v>
@@ -45478,7 +45382,7 @@
         <v>295</v>
       </c>
       <c r="B298" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="C298" s="6">
         <v>50</v>
@@ -45646,7 +45550,7 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="C299" s="6">
         <v>48</v>
@@ -45774,7 +45678,7 @@
         <v>297</v>
       </c>
       <c r="B300" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="C300" s="6">
         <v>69</v>
@@ -45906,7 +45810,7 @@
         <v>298</v>
       </c>
       <c r="B301" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="C301" s="6">
         <v>71</v>
@@ -46030,7 +45934,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="C302" s="6">
         <v>73</v>
@@ -46158,7 +46062,7 @@
         <v>300</v>
       </c>
       <c r="B303" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="C303" s="6">
         <v>65</v>
@@ -46274,7 +46178,7 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="C304" s="6">
         <v>76</v>
@@ -46414,7 +46318,7 @@
         <v>302</v>
       </c>
       <c r="B305" t="s">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="C305" s="6">
         <v>81</v>
@@ -46534,7 +46438,7 @@
         <v>303</v>
       </c>
       <c r="B306" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="C306" s="6">
         <v>57</v>
@@ -46678,7 +46582,7 @@
         <v>304</v>
       </c>
       <c r="B307" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="C307" s="6">
         <v>87</v>
@@ -46802,7 +46706,7 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="C308" s="6">
         <v>33</v>
@@ -46970,7 +46874,7 @@
         <v>306</v>
       </c>
       <c r="B309" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="C309" s="6">
         <v>79</v>
@@ -47090,7 +46994,7 @@
         <v>307</v>
       </c>
       <c r="B310" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="C310" s="6">
         <v>76</v>
@@ -47206,7 +47110,7 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="C311" s="6">
         <v>71</v>
@@ -47314,7 +47218,7 @@
         <v>309</v>
       </c>
       <c r="B312" t="s">
-        <v>741</v>
+        <v>701</v>
       </c>
       <c r="C312" s="6">
         <v>74</v>
@@ -47416,7 +47320,7 @@
         <v>137</v>
       </c>
       <c r="BB312" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="BC312" s="11">
         <v>4</v>
@@ -47433,7 +47337,7 @@
         <v>310</v>
       </c>
       <c r="B313" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="C313" s="6">
         <v>98</v>
@@ -47589,7 +47493,7 @@
         <v>311</v>
       </c>
       <c r="B314" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="C314" s="6">
         <v>76</v>
@@ -47695,7 +47599,7 @@
         <v>137</v>
       </c>
       <c r="BB314" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="BC314" s="11">
         <v>4</v>
@@ -47712,7 +47616,7 @@
         <v>312</v>
       </c>
       <c r="B315" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="C315" s="6">
         <v>44</v>
@@ -47844,7 +47748,7 @@
         <v>313</v>
       </c>
       <c r="B316" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="C316" s="6">
         <v>42</v>
@@ -48000,7 +47904,7 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="C317" s="6">
         <v>44</v>
@@ -48152,7 +48056,7 @@
         <v>315</v>
       </c>
       <c r="B318" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="C318" s="6">
         <v>48</v>
@@ -48284,7 +48188,7 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="C319" s="6">
         <v>67</v>
@@ -48404,7 +48308,7 @@
         <v>317</v>
       </c>
       <c r="B320" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="C320" s="6">
         <v>63</v>
@@ -48540,7 +48444,7 @@
         <v>318</v>
       </c>
       <c r="B321" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="C321" s="6">
         <v>73</v>
@@ -48664,7 +48568,7 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="C322" s="6">
         <v>61</v>
@@ -48776,7 +48680,7 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="C323" s="6">
         <v>42</v>
@@ -48912,7 +48816,7 @@
         <v>321</v>
       </c>
       <c r="B324" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="C324" s="6">
         <v>82</v>
@@ -49068,7 +48972,7 @@
         <v>322</v>
       </c>
       <c r="B325" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="C325" s="6">
         <v>68</v>
@@ -49184,7 +49088,7 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="C326" s="6">
         <v>46</v>
@@ -49314,7 +49218,7 @@
         <v>32</v>
       </c>
       <c r="BB326" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="BC326" s="11">
         <v>4</v>
@@ -49331,7 +49235,7 @@
         <v>324</v>
       </c>
       <c r="B327" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="C327" s="6">
         <v>43</v>
@@ -49437,7 +49341,7 @@
         <v>109</v>
       </c>
       <c r="BB327" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="BC327" s="11">
         <v>3</v>
@@ -49454,7 +49358,7 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="C328" s="6">
         <v>72</v>
@@ -49566,7 +49470,7 @@
         <v>326</v>
       </c>
       <c r="B329" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="C329" s="6">
         <v>42</v>
@@ -49684,10 +49588,10 @@
         <v>32</v>
       </c>
       <c r="BA329" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="BB329" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="BC329" s="11">
         <v>5</v>
@@ -49704,7 +49608,7 @@
         <v>327</v>
       </c>
       <c r="B330" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="C330" s="6">
         <v>62</v>
@@ -49824,7 +49728,7 @@
         <v>328</v>
       </c>
       <c r="B331" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="C331" s="6">
         <v>40</v>
@@ -49972,7 +49876,7 @@
         <v>329</v>
       </c>
       <c r="B332" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="C332" s="6">
         <v>38</v>
@@ -50062,7 +49966,7 @@
         <v>241</v>
       </c>
       <c r="BB332" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="BC332" s="11">
         <v>3</v>
@@ -50079,7 +49983,7 @@
         <v>330</v>
       </c>
       <c r="B333" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="C333" s="6">
         <v>42</v>
@@ -50199,7 +50103,7 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="C334" s="6">
         <v>73</v>
@@ -50327,7 +50231,7 @@
         <v>332</v>
       </c>
       <c r="B335" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
       <c r="C335" s="6">
         <v>82</v>
@@ -50447,7 +50351,7 @@
         <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="C336" s="6">
         <v>83</v>
@@ -50583,7 +50487,7 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
       <c r="C337" s="6">
         <v>75</v>
@@ -50699,7 +50603,7 @@
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="C338" s="6">
         <v>74</v>
@@ -50823,7 +50727,7 @@
         <v>336</v>
       </c>
       <c r="B339" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="C339" s="6">
         <v>42</v>
@@ -50947,7 +50851,7 @@
         <v>337</v>
       </c>
       <c r="B340" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="C340" s="6">
         <v>78</v>
@@ -51087,7 +50991,7 @@
         <v>338</v>
       </c>
       <c r="B341" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="C341" s="6">
         <v>56</v>
@@ -51239,7 +51143,7 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="C342" s="6">
         <v>41</v>
@@ -51367,7 +51271,7 @@
         <v>340</v>
       </c>
       <c r="B343" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="C343" s="6">
         <v>72</v>
@@ -51491,7 +51395,7 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="C344" s="6">
         <v>43</v>
@@ -51635,7 +51539,7 @@
         <v>342</v>
       </c>
       <c r="B345" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="C345" s="6">
         <v>56</v>
@@ -51739,7 +51643,7 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="C346" s="6">
         <v>59</v>
@@ -51843,7 +51747,7 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="C347" s="6">
         <v>41</v>
@@ -51983,7 +51887,7 @@
         <v>345</v>
       </c>
       <c r="B348" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="C348" s="6">
         <v>80</v>
@@ -52123,7 +52027,7 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="C349" s="6">
         <v>53</v>
@@ -52259,7 +52163,7 @@
         <v>347</v>
       </c>
       <c r="B350" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="C350" s="6">
         <v>68</v>
@@ -52415,7 +52319,7 @@
         <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="C351" s="6">
         <v>58</v>
@@ -52549,7 +52453,7 @@
         <v>32</v>
       </c>
       <c r="BB351" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="BC351" s="11">
         <v>4</v>
@@ -52566,7 +52470,7 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="C352" s="6">
         <v>52</v>
@@ -52718,7 +52622,7 @@
         <v>350</v>
       </c>
       <c r="B353" t="s">
-        <v>781</v>
+        <v>741</v>
       </c>
       <c r="C353" s="6">
         <v>84</v>
@@ -52850,7 +52754,7 @@
         <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="C354" s="6">
         <v>85</v>
@@ -53002,7 +52906,7 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="C355" s="6">
         <v>77</v>
@@ -53118,7 +53022,7 @@
         <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>784</v>
+        <v>744</v>
       </c>
       <c r="C356" s="6">
         <v>58</v>
@@ -53262,7 +53166,7 @@
         <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
       <c r="C357" s="6">
         <v>76</v>
@@ -53374,7 +53278,7 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
       <c r="C358" s="6">
         <v>79</v>
@@ -53498,7 +53402,7 @@
         <v>356</v>
       </c>
       <c r="B359" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="C359" s="6">
         <v>69</v>
@@ -53640,7 +53544,7 @@
         <v>32</v>
       </c>
       <c r="BA359" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="BC359" s="11">
         <v>5</v>
@@ -53657,7 +53561,7 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="C360" s="6">
         <v>71</v>
@@ -53797,7 +53701,7 @@
         <v>358</v>
       </c>
       <c r="B361" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="C361" s="6">
         <v>42</v>
@@ -53945,7 +53849,7 @@
         <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="C362" s="6">
         <v>77</v>
@@ -54081,7 +53985,7 @@
         <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
       <c r="C363" s="6">
         <v>65</v>
@@ -54201,7 +54105,7 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="C364" s="6">
         <v>66</v>
@@ -54309,7 +54213,7 @@
         <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
       <c r="C365" s="6">
         <v>40</v>
@@ -54461,7 +54365,7 @@
         <v>363</v>
       </c>
       <c r="B366" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="C366" s="6">
         <v>71</v>
@@ -54585,7 +54489,7 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="C367" s="6">
         <v>32</v>
@@ -54713,7 +54617,7 @@
         <v>365</v>
       </c>
       <c r="B368" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="C368" s="6">
         <v>62</v>
@@ -54865,7 +54769,7 @@
         <v>366</v>
       </c>
       <c r="B369" t="s">
-        <v>797</v>
+        <v>757</v>
       </c>
       <c r="C369" s="6">
         <v>32</v>
@@ -55013,7 +54917,7 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
       <c r="C370" s="6">
         <v>68</v>
@@ -55129,7 +55033,7 @@
         <v>368</v>
       </c>
       <c r="B371" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="C371" s="6">
         <v>69</v>
@@ -55237,7 +55141,7 @@
         <v>369</v>
       </c>
       <c r="B372" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="C372" s="6">
         <v>79</v>
@@ -55361,7 +55265,7 @@
         <v>370</v>
       </c>
       <c r="B373" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="C373" s="6">
         <v>42</v>
@@ -55501,7 +55405,7 @@
         <v>371</v>
       </c>
       <c r="B374" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="C374" s="6">
         <v>82</v>
@@ -55645,7 +55549,7 @@
         <v>372</v>
       </c>
       <c r="B375" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="C375" s="6">
         <v>65</v>
@@ -55781,7 +55685,7 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
       <c r="C376" s="6">
         <v>66</v>
@@ -55889,7 +55793,7 @@
         <v>374</v>
       </c>
       <c r="B377" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="C377" s="6">
         <v>69</v>
@@ -56005,7 +55909,7 @@
         <v>375</v>
       </c>
       <c r="B378" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="C378" s="6">
         <v>45</v>
@@ -56149,7 +56053,7 @@
         <v>376</v>
       </c>
       <c r="B379" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="C379" s="6">
         <v>96</v>
@@ -56277,7 +56181,7 @@
         <v>377</v>
       </c>
       <c r="B380" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="C380" s="6">
         <v>93</v>
@@ -56413,7 +56317,7 @@
         <v>378</v>
       </c>
       <c r="B381" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
       <c r="C381" s="6">
         <v>71</v>
@@ -56525,7 +56429,7 @@
         <v>379</v>
       </c>
       <c r="B382" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="C382" s="6">
         <v>66</v>
@@ -56677,7 +56581,7 @@
         <v>380</v>
       </c>
       <c r="B383" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="C383" s="6">
         <v>36</v>
@@ -56793,7 +56697,7 @@
         <v>381</v>
       </c>
       <c r="B384" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="C384" s="6">
         <v>97</v>
@@ -56941,7 +56845,7 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="C385" s="6">
         <v>81</v>
@@ -57061,7 +56965,7 @@
         <v>383</v>
       </c>
       <c r="B386" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="C386" s="6">
         <v>32</v>
@@ -57181,7 +57085,7 @@
         <v>384</v>
       </c>
       <c r="B387" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="C387" s="6">
         <v>88</v>
@@ -57311,7 +57215,7 @@
         <v>137</v>
       </c>
       <c r="BB387" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="BC387" s="11">
         <v>5</v>
@@ -57328,7 +57232,7 @@
         <v>385</v>
       </c>
       <c r="B388" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="C388" s="6">
         <v>99</v>
@@ -57478,7 +57382,7 @@
         <v>18</v>
       </c>
       <c r="BA388" s="29" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="BC388" s="11">
         <v>6</v>
@@ -57495,7 +57399,7 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="C389" s="6">
         <v>84</v>
@@ -57609,7 +57513,7 @@
         <v>137</v>
       </c>
       <c r="BB389" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="BC389" s="11">
         <v>5</v>
@@ -57626,7 +57530,7 @@
         <v>387</v>
       </c>
       <c r="B390" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="C390" s="6">
         <v>81</v>
@@ -57736,7 +57640,7 @@
         <v>92</v>
       </c>
       <c r="BB390" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="BC390" s="11">
         <v>6</v>
@@ -57753,7 +57657,7 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="C391" s="6">
         <v>88</v>
@@ -57879,7 +57783,7 @@
         <v>18</v>
       </c>
       <c r="BB391" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
       <c r="BC391" s="11">
         <v>5</v>
@@ -57896,7 +57800,7 @@
         <v>389</v>
       </c>
       <c r="B392" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="C392" s="6">
         <v>37</v>
@@ -58044,7 +57948,7 @@
         <v>390</v>
       </c>
       <c r="B393" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="C393" s="6">
         <v>80</v>
@@ -58164,7 +58068,7 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="C394" s="6">
         <v>74</v>
@@ -58272,7 +58176,7 @@
         <v>392</v>
       </c>
       <c r="B395" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="C395" s="6">
         <v>39</v>
@@ -58412,7 +58316,7 @@
         <v>393</v>
       </c>
       <c r="B396" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="C396" s="6">
         <v>70</v>
@@ -58528,7 +58432,7 @@
         <v>394</v>
       </c>
       <c r="B397" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="C397" s="6">
         <v>76</v>
@@ -58630,7 +58534,7 @@
         <v>79</v>
       </c>
       <c r="BA397" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
       <c r="BC397" s="11">
         <v>3</v>
@@ -58647,7 +58551,7 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="C398" s="6">
         <v>89</v>
@@ -58799,7 +58703,7 @@
         <v>396</v>
       </c>
       <c r="B399" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="C399" s="6">
         <v>77</v>
@@ -58919,7 +58823,7 @@
         <v>397</v>
       </c>
       <c r="B400" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
       <c r="C400" s="6">
         <v>54</v>
@@ -59063,7 +58967,7 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="C401" s="6">
         <v>53</v>
@@ -59195,7 +59099,7 @@
         <v>399</v>
       </c>
       <c r="B402" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="C402" s="6">
         <v>72</v>
@@ -59307,7 +59211,7 @@
         <v>400</v>
       </c>
       <c r="B403" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="C403" s="16">
         <v>43</v>
